--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140" activeTab="4"/>
+    <workbookView windowHeight="17775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>GPT-3 XL</t>
   </si>
   <si>
-    <t>GPT-32.7B</t>
+    <t>GPT-3 2.7B</t>
   </si>
   <si>
     <t>GPT-3 6.7B</t>
@@ -319,13 +319,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.8"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="10.8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1037,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,6 +1062,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1086,13 +1089,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1421,27 +1424,27 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="14.6346153846154" customWidth="1"/>
-    <col min="3" max="3" width="12.2692307692308" customWidth="1"/>
-    <col min="4" max="4" width="20.2692307692308" customWidth="1"/>
-    <col min="5" max="5" width="11.7307692307692" customWidth="1"/>
-    <col min="6" max="6" width="12.7884615384615"/>
+    <col min="2" max="2" width="14.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.7333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.7916666666667"/>
     <col min="7" max="7" width="12.625"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.7884615384615"/>
-    <col min="10" max="10" width="14.2115384615385" customWidth="1"/>
-    <col min="11" max="11" width="12.7884615384615"/>
-    <col min="12" max="12" width="14.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="12.7916666666667"/>
+    <col min="10" max="10" width="14.2083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.7916666666667"/>
+    <col min="12" max="12" width="14.7333333333333" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="11.2596153846154" customWidth="1"/>
-    <col min="16" max="16" width="15.2596153846154" customWidth="1"/>
+    <col min="15" max="15" width="11.2583333333333" customWidth="1"/>
+    <col min="16" max="16" width="15.2583333333333" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
     <col min="18" max="18" width="11.125" customWidth="1"/>
     <col min="19" max="19" width="10.625" customWidth="1"/>
@@ -1449,11 +1452,11 @@
     <col min="21" max="21" width="9.375"/>
     <col min="22" max="22" width="10.625" customWidth="1"/>
     <col min="23" max="23" width="9.875" customWidth="1"/>
-    <col min="26" max="26" width="10.7596153846154" customWidth="1"/>
+    <col min="26" max="26" width="10.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="86" spans="1:8">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="57" spans="1:8">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1465,166 +1468,166 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="19"/>
-      <c r="B2" s="9">
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="10">
         <v>3090</v>
       </c>
-      <c r="C2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,2,0)</f>
+      <c r="C2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,2,0)</f>
         <v>142</v>
       </c>
-      <c r="D2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,3,0)</f>
+      <c r="D2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,3,0)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,4,0)</f>
+      <c r="E2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,4,0)</f>
         <v>24</v>
       </c>
-      <c r="F2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,5,0)</f>
+      <c r="F2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,5,0)</f>
         <v>936</v>
       </c>
-      <c r="G2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,6,0)</f>
-        <v>64</v>
-      </c>
-      <c r="H2" s="20">
-        <f>VLOOKUP(B2,GPUs!A1:G6,7,0)</f>
+      <c r="G2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,6,0)</f>
+        <v>32</v>
+      </c>
+      <c r="H2" s="21">
+        <f>VLOOKUP(B2,GPUs!A1:G7,7,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="35" spans="1:7">
-      <c r="A5" s="19" t="s">
+    <row r="5" ht="28.5" spans="1:7">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:7">
-      <c r="A6" s="19"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <f>VLOOKUP(B6,Models!A1:F15,2,0)</f>
         <v>4096</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <f>VLOOKUP(B6,Models!A1:F15,3,0)</f>
         <v>32</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <f>VLOOKUP(B6,Models!A1:F15,4,0)</f>
         <v>4096</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f>VLOOKUP(B6,Models!A1:F15,5,0)</f>
         <v>32</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f>VLOOKUP(B6,Models!A1:F15,6,0)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:5">
-      <c r="A9" s="21" t="s">
+    <row r="9" ht="42.75" spans="1:5">
+      <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="19">
         <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="35" spans="1:5">
-      <c r="A12" s="21" t="s">
+    <row r="12" ht="28.5" spans="1:5">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17">
-        <v>16</v>
+      <c r="C12" s="19">
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="52" spans="1:5">
-      <c r="A13" s="21"/>
+    <row r="13" ht="28.5" spans="1:5">
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="17">
-        <v>8</v>
+      <c r="C13" s="19">
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="17">
-        <f>MAX(FLOOR(3*Input!E6/Input!C2*Input!G2/2/1000,1),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="52" spans="1:5">
-      <c r="A14" s="21"/>
+      <c r="E13" s="19">
+        <f>MAX(FLOOR(3*Input!E6/D2*Input!G2/2/1000,1),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:5">
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17">
-        <v>4</v>
+      <c r="C14" s="19">
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="17">
-        <f>CEILING((16*Computation!C1/C13)/(Input!E2*1000000000-Input!C6*Input!C12*Input!E6*2*Input!F6),1)</f>
+      <c r="E14" s="19">
+        <f>CEILING((16*Computation!C1/C13)/(Input!E2*1000000000-Input!C6*Input!C12*Input!E6*2*Input!F6/C13),1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="35" spans="1:5">
-      <c r="A15" s="21"/>
+    <row r="15" ht="28.5" spans="1:5">
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1634,9 +1637,9 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="19">
         <f>C12/C14/4</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1650,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>GPUs!$A$2:$A$6</formula1>
+      <formula1>GPUs!$A$2:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>Models!$A$2:$A$15</formula1>
@@ -1665,308 +1668,308 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="68" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="57" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:6">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>4096</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>32</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>4096</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>32</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>32000</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:6">
-      <c r="A3" s="14" t="s">
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>4096</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>40</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>5120</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>40</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>32000</v>
       </c>
     </row>
-    <row r="4" ht="32" spans="1:6">
-      <c r="A4" s="16" t="s">
+    <row r="4" ht="27" spans="1:6">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>4096</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>52</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>6656</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>60</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>32000</v>
       </c>
     </row>
-    <row r="5" ht="32" spans="1:6">
-      <c r="A5" s="16" t="s">
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>4096</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>64</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>8192</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>80</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>32000</v>
       </c>
     </row>
-    <row r="6" ht="34" spans="1:6">
-      <c r="A6" s="14" t="s">
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>4096</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>64</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>8192</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>80</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>32000</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:6">
-      <c r="A7" s="14" t="s">
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>2048</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>96</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>12288</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>96</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <v>50257</v>
       </c>
     </row>
-    <row r="8" ht="32" spans="1:6">
-      <c r="A8" s="16" t="s">
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>2048</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>64</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>768</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>12</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>50257</v>
       </c>
     </row>
-    <row r="9" ht="32" spans="1:6">
-      <c r="A9" s="16" t="s">
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>2048</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <v>64</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <v>1024</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>16</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <v>50257</v>
       </c>
     </row>
-    <row r="10" ht="32" spans="1:6">
-      <c r="A10" s="16" t="s">
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>2048</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>96</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="19">
         <v>1536</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="19">
         <v>16</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>50257</v>
       </c>
     </row>
-    <row r="11" ht="32" spans="1:6">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>2048</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <v>128</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>2048</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>24</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>50257</v>
       </c>
     </row>
-    <row r="12" ht="32" spans="1:6">
-      <c r="A12" s="16" t="s">
+    <row r="12" ht="27" spans="1:6">
+      <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>2048</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>80</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>2560</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>32</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>50257</v>
       </c>
     </row>
-    <row r="13" ht="32" spans="1:6">
-      <c r="A13" s="16" t="s">
+    <row r="13" ht="27" spans="1:6">
+      <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>2048</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>128</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="19">
         <v>4096</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>32</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="16">
         <v>50257</v>
       </c>
     </row>
-    <row r="14" ht="32" spans="1:6">
-      <c r="A14" s="16" t="s">
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>2048</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>128</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <v>5140</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>40</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>50257</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="1:6">
-      <c r="A15" s="14" t="s">
+    <row r="15" ht="28.5" spans="1:6">
+      <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>2048</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="16">
         <v>128</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>12288</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="16">
         <v>96</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="16">
         <v>50257</v>
       </c>
     </row>
@@ -1979,15 +1982,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="104" spans="1:7">
+    <row r="1" ht="71.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1997,131 +2000,154 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.75" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="15" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>989</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>495</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>144</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>4900</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>900</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="17.75" spans="1:7">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>989</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>495</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>80</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>3350</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>900</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="17.75" spans="1:7">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>312</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>156</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>80</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>2000</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>900</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:7">
-      <c r="A5" s="12">
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="13">
         <v>4090</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>330</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>83</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>24</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>1000</v>
       </c>
-      <c r="F5" s="13">
-        <v>64</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="14">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="1:7">
-      <c r="A6" s="12">
+    <row r="6" ht="15" spans="1:7">
+      <c r="A6" s="13">
         <v>3090</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>142</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>36</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>24</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>936</v>
       </c>
-      <c r="F6" s="13">
-        <v>64</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="14">
+        <v>32</v>
+      </c>
+      <c r="G6" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="13">
+        <v>3060</v>
+      </c>
+      <c r="B7" s="14">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>360</v>
+      </c>
+      <c r="F7" s="14">
+        <v>32</v>
+      </c>
+      <c r="G7" s="14">
         <v>10</v>
       </c>
     </row>
@@ -2134,28 +2160,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1826923076923" customWidth="1"/>
-    <col min="2" max="2" width="9.81730769230769"/>
-    <col min="3" max="3" width="12.8173076923077"/>
-    <col min="5" max="5" width="12.8173076923077"/>
-    <col min="7" max="7" width="12.8173076923077"/>
+    <col min="1" max="1" width="12.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.81666666666667"/>
+    <col min="3" max="3" width="12.8166666666667"/>
+    <col min="5" max="5" width="12.8166666666667"/>
+    <col min="7" max="7" width="12.8166666666667"/>
     <col min="8" max="8" width="12.625"/>
-    <col min="9" max="9" width="12.5384615384615" customWidth="1"/>
-    <col min="10" max="10" width="12.3653846153846" customWidth="1"/>
-    <col min="11" max="11" width="16.3653846153846" customWidth="1"/>
-    <col min="12" max="12" width="14.5384615384615" customWidth="1"/>
+    <col min="9" max="9" width="12.5416666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.3666666666667" customWidth="1"/>
+    <col min="11" max="11" width="16.3666666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.5416666666667" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52" spans="1:11">
+    <row r="1" ht="42.75" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -2190,12 +2216,12 @@
       <c r="J1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="9">
         <f>Input!C6*Input!E6</f>
         <v>16777216</v>
       </c>
     </row>
-    <row r="4" ht="35" spans="1:11">
+    <row r="4" ht="28.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2204,38 +2230,38 @@
       </c>
       <c r="C4" s="3">
         <f>12*C1/Input!C13/Input!C14</f>
-        <v>2465316864</v>
+        <v>9861267456</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="3">
         <f>2*C1/Input!C13/Input!C14</f>
-        <v>410886144</v>
+        <v>1643544576</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="3">
         <f>2*C1/Input!C13/Input!C14</f>
-        <v>410886144</v>
+        <v>1643544576</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="3">
-        <f>Input!C6*Input!C12*Input!E6*2/Input!C13</f>
-        <v>67108864</v>
+        <f>Input!F6*Input!C6*Input!C12*Input!E6*2/Input!C13</f>
+        <v>8589934592</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="K4" s="3">
         <f>(C4+E4+G4+I4)</f>
-        <v>3354198016</v>
-      </c>
-    </row>
-    <row r="6" ht="86" spans="1:13">
+        <v>21738291200</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -2244,45 +2270,45 @@
       </c>
       <c r="C6" s="3">
         <f>Input!F6/Input!C14</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="3">
         <f>Input!C12/Input!C15</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="3">
-        <f>2*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!C2/1000000000000</f>
-        <v>0.189632636149183</v>
+        <f>2*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!D2/1000000000000</f>
+        <v>5.983963185152</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="3">
-        <f>4*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!C2/1000000000000</f>
-        <v>0.379265272298366</v>
+        <f>4*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!D2/1000000000000</f>
+        <v>11.967926370304</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="3">
         <f>G6/C6/E6</f>
-        <v>0.00296300993983099</v>
+        <v>0.023374856192</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M6" s="3">
         <f>I6/C6/E6</f>
-        <v>0.00592601987966197</v>
-      </c>
-    </row>
-    <row r="8" ht="69" spans="1:5">
+        <v>0.046749712384</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2291,100 +2317,103 @@
       </c>
       <c r="C8" s="3">
         <f>Input!F6/Input!C14</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="3">
         <f>Input!C12/Input!C15</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="86" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="3">
-        <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*4</f>
-        <v>0.536870912</v>
+        <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*2*4</f>
+        <v>8.589934592</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="3">
         <f>C9/C8/E8</f>
-        <v>0.008388608</v>
-      </c>
-    </row>
-    <row r="10" ht="104" spans="1:5">
+        <v>0.033554432</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="3">
-        <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*4</f>
-        <v>0.536870912</v>
+        <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*2*4</f>
+        <v>8.589934592</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="3">
         <f>C10/C8/E8</f>
-        <v>0.008388608</v>
-      </c>
-    </row>
-    <row r="11" ht="121" spans="1:5">
+        <v>0.033554432</v>
+      </c>
+    </row>
+    <row r="11" ht="71.25" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="3">
-        <f>C10/Input!C13*2</f>
-        <v>0.134217728</v>
+        <f>C10</f>
+        <v>8.589934592</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="3">
         <f>C11/C8/E8</f>
-        <v>0.002097152</v>
-      </c>
-    </row>
-    <row r="12" ht="69" spans="1:5">
+        <v>0.033554432</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="3">
         <f>2*Input!E6*Input!E6*Input!C12/Input!C13/Input!C9*8/1000000000*8</f>
-        <v>0.04294967296</v>
+        <v>0.17179869184</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="3">
         <f>C12/E8</f>
-        <v>0.00536870912</v>
-      </c>
-    </row>
-    <row r="13" ht="86" spans="1:5">
+        <v>0.01073741824</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="3">
-        <f>2*E1*2*8/1000000000/Input!C13/Input!C9</f>
+        <f>E1*2*8/1000000000/Input!C13/Input!C9</f>
         <v>0.00524288</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="3">
-        <f>C1/Input!C13/Input!C14*2*8*2/1000000000*8/Input!C9</f>
-        <v>0.52593426432</v>
-      </c>
+        <f>C1/Input!C13/Input!C14*2*8/1000000000*8/Input!C9</f>
+        <v>1.05186852864</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2401,27 +2430,27 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="5" max="5" width="10.6346153846154" customWidth="1"/>
-    <col min="6" max="6" width="11.5384615384615" customWidth="1"/>
-    <col min="7" max="7" width="15.8173076923077" customWidth="1"/>
+    <col min="5" max="5" width="10.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.8166666666667" customWidth="1"/>
     <col min="8" max="8" width="12.625"/>
-    <col min="9" max="9" width="13.6346153846154" customWidth="1"/>
+    <col min="9" max="9" width="13.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="12.625"/>
-    <col min="11" max="11" width="12.8173076923077"/>
-    <col min="13" max="13" width="12.8173076923077"/>
+    <col min="11" max="11" width="12.8166666666667"/>
+    <col min="13" max="13" width="12.8166666666667"/>
     <col min="14" max="14" width="12.625"/>
-    <col min="15" max="15" width="12.8173076923077"/>
-    <col min="16" max="16" width="12.6346153846154" customWidth="1"/>
-    <col min="17" max="17" width="13.2788461538462" customWidth="1"/>
+    <col min="15" max="15" width="12.8166666666667"/>
+    <col min="16" max="16" width="12.6333333333333" customWidth="1"/>
+    <col min="17" max="17" width="13.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69" spans="1:17">
+    <row r="1" ht="57" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,59 +2459,59 @@
       </c>
       <c r="C1" s="3">
         <f>Computation!C8</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="3">
         <f>Computation!E8</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G1" s="3">
         <f>(Input!C14-1)*I1/Computation!E6</f>
-        <v>0.272438830555944</v>
+        <v>0.910868611072</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="3">
         <f>Computation!C9+Computation!G6</f>
-        <v>0.726503548149183</v>
+        <v>14.573897777152</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K1" s="3">
         <f>MAX(Computation!C10+Computation!C11,Computation!I6)</f>
-        <v>0.67108864</v>
+        <v>17.179869184</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="M1" s="3">
         <f>(Input!C14-1)*K1/Computation!E6</f>
-        <v>0.25165824</v>
+        <v>1.073741824</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
       <c r="O1" s="3">
         <f>Computation!C13+Computation!E13</f>
-        <v>0.53117714432</v>
+        <v>1.05711140864</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q1" s="3">
         <f>G1+I1+K1+M1+O1</f>
-        <v>2.45286640302513</v>
-      </c>
-    </row>
-    <row r="2" ht="69" spans="1:17">
+        <v>34.795488804864</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2495,14 +2524,14 @@
       </c>
       <c r="I2" s="3">
         <f>Computation!E9</f>
-        <v>0.008388608</v>
+        <v>0.033554432</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="3">
         <f>Computation!E10</f>
-        <v>0.008388608</v>
+        <v>0.033554432</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2511,7 +2540,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" ht="69" spans="1:17">
+    <row r="3" ht="57" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2524,14 +2553,14 @@
       </c>
       <c r="I3" s="3">
         <f>Computation!K6</f>
-        <v>0.00296300993983099</v>
+        <v>0.023374856192</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K3" s="3">
         <f>Computation!E11</f>
-        <v>0.002097152</v>
+        <v>0.033554432</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2540,7 +2569,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" ht="69" spans="1:17">
+    <row r="4" ht="57" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2553,14 +2582,14 @@
       </c>
       <c r="I4" s="3">
         <f>I3/(I2+I3)</f>
-        <v>0.261020936005454</v>
+        <v>0.410594562734841</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="K4" s="3">
         <f>Computation!M6</f>
-        <v>0.00592601987966197</v>
+        <v>0.046749712384</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2569,7 +2598,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" ht="35" spans="1:17">
+    <row r="5" ht="14.25" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2584,7 +2613,7 @@
       </c>
       <c r="K5" s="3">
         <f>Computation!I6/K1</f>
-        <v>0.565149295774648</v>
+        <v>0.696625</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="3"/>
+    <workbookView windowWidth="18285" windowHeight="10575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,25 @@
     <sheet name="Computation" sheetId="2" r:id="rId4"/>
     <sheet name="Output" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Input</t>
   </si>
@@ -96,6 +109,15 @@
   </si>
   <si>
     <t>Recomended Microbatch size</t>
+  </si>
+  <si>
+    <t>Total number of tokens (M)</t>
+  </si>
+  <si>
+    <t>Data parallel degree</t>
+  </si>
+  <si>
+    <t>Number of epochs</t>
   </si>
   <si>
     <t>LLAMA-13B</t>
@@ -255,10 +277,25 @@
     <t>Backward  time</t>
   </si>
   <si>
+    <t>Stable Time</t>
+  </si>
+  <si>
     <t>Cooldown  time</t>
   </si>
   <si>
+    <t>Allreduce time</t>
+  </si>
+  <si>
     <t>Per-iter  time</t>
+  </si>
+  <si>
+    <t>Total number of GPUs</t>
+  </si>
+  <si>
+    <t>Total number of iters</t>
+  </si>
+  <si>
+    <t>Total training time</t>
   </si>
   <si>
     <t>Per-loop  forward computation time</t>
@@ -273,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1037,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1083,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1421,10 +1461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1456,7 +1496,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1468,166 +1508,166 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="20"/>
-      <c r="B2" s="10">
+      <c r="A2" s="21"/>
+      <c r="B2" s="11">
         <v>3090</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,2,0)</f>
         <v>142</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,3,0)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,4,0)</f>
         <v>24</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,5,0)</f>
         <v>936</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,6,0)</f>
         <v>32</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <f>VLOOKUP(B2,GPUs!A1:G7,7,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <f>VLOOKUP(B6,Models!A1:F15,2,0)</f>
         <v>4096</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <f>VLOOKUP(B6,Models!A1:F15,3,0)</f>
         <v>32</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <f>VLOOKUP(B6,Models!A1:F15,4,0)</f>
         <v>4096</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <f>VLOOKUP(B6,Models!A1:F15,5,0)</f>
         <v>32</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="18">
         <f>VLOOKUP(B6,Models!A1:F15,6,0)</f>
         <v>32000</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="20">
         <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:5">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="20">
         <f>MAX(FLOOR(3*Input!E6/D2*Input!G2/2/1000,1),1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:5">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <f>CEILING((16*Computation!C1/C13)/(Input!E2*1000000000-Input!C6*Input!C12*Input!E6*2*Input!F6/C13),1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1637,9 +1677,32 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <f>C12/C14/4</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:7">
+      <c r="A18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="20">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1674,302 +1737,302 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="57" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <v>4096</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>32</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="17">
         <v>4096</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>32</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>32000</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17">
         <v>4096</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>40</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>5120</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>40</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="17">
         <v>32000</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
-      <c r="A4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="17">
         <v>4096</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>52</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>6656</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>60</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>32000</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
-      <c r="A5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="17">
         <v>4096</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>64</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>8192</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>80</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>32000</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
-      <c r="A6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="17">
         <v>4096</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>64</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>8192</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>80</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>32000</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="17">
         <v>2048</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>96</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>12288</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>96</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>50257</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17">
         <v>2048</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>64</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>768</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>12</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>50257</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2048</v>
+      </c>
+      <c r="C9" s="17">
+        <v>64</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1024</v>
+      </c>
+      <c r="E9" s="17">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2048</v>
+      </c>
+      <c r="C10" s="17">
+        <v>96</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1536</v>
+      </c>
+      <c r="E10" s="20">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2048</v>
+      </c>
+      <c r="C11" s="17">
+        <v>128</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2048</v>
+      </c>
+      <c r="E11" s="17">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:6">
+      <c r="A12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2048</v>
+      </c>
+      <c r="C12" s="17">
+        <v>80</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2560</v>
+      </c>
+      <c r="E12" s="17">
         <v>32</v>
       </c>
-      <c r="B9" s="16">
+      <c r="F12" s="17">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:6">
+      <c r="A13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="17">
         <v>2048</v>
       </c>
-      <c r="C9" s="16">
-        <v>64</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1024</v>
-      </c>
-      <c r="E9" s="16">
-        <v>16</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="C13" s="17">
+        <v>128</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4096</v>
+      </c>
+      <c r="E13" s="20">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17">
         <v>50257</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:6">
-      <c r="A10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="16">
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17">
         <v>2048</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C14" s="17">
+        <v>128</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5140</v>
+      </c>
+      <c r="E14" s="17">
+        <v>40</v>
+      </c>
+      <c r="F14" s="18">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:6">
+      <c r="A15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2048</v>
+      </c>
+      <c r="C15" s="17">
+        <v>128</v>
+      </c>
+      <c r="D15" s="17">
+        <v>12288</v>
+      </c>
+      <c r="E15" s="17">
         <v>96</v>
       </c>
-      <c r="D10" s="19">
-        <v>1536</v>
-      </c>
-      <c r="E10" s="19">
-        <v>16</v>
-      </c>
-      <c r="F10" s="16">
-        <v>50257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2048</v>
-      </c>
-      <c r="C11" s="16">
-        <v>128</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2048</v>
-      </c>
-      <c r="E11" s="16">
-        <v>24</v>
-      </c>
-      <c r="F11" s="17">
-        <v>50257</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:6">
-      <c r="A12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2048</v>
-      </c>
-      <c r="C12" s="16">
-        <v>80</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2560</v>
-      </c>
-      <c r="E12" s="16">
-        <v>32</v>
-      </c>
-      <c r="F12" s="16">
-        <v>50257</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2048</v>
-      </c>
-      <c r="C13" s="16">
-        <v>128</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4096</v>
-      </c>
-      <c r="E13" s="19">
-        <v>32</v>
-      </c>
-      <c r="F13" s="16">
-        <v>50257</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:6">
-      <c r="A14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2048</v>
-      </c>
-      <c r="C14" s="16">
-        <v>128</v>
-      </c>
-      <c r="D14" s="16">
-        <v>5140</v>
-      </c>
-      <c r="E14" s="16">
-        <v>40</v>
-      </c>
-      <c r="F14" s="17">
-        <v>50257</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2048</v>
-      </c>
-      <c r="C15" s="16">
-        <v>128</v>
-      </c>
-      <c r="D15" s="16">
-        <v>12288</v>
-      </c>
-      <c r="E15" s="16">
-        <v>96</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="F15" s="17">
         <v>50257</v>
       </c>
     </row>
@@ -2000,154 +2063,154 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13">
         <v>989</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>495</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>144</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>4900</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>900</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13">
         <v>989</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>495</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>80</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>3350</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>900</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15">
         <v>312</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>156</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>80</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>2000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <v>900</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4090</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>330</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>83</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>24</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>1000</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>32</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>3090</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>142</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>36</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>24</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>936</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>32</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>3060</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>51</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>13</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>360</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>32</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>10</v>
       </c>
     </row>
@@ -2162,8 +2225,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2182,79 +2245,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.75" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="6">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7">
         <f>$E1+Input!F6*($G1+$I1)</f>
         <v>6574178304</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="6">
+      <c r="D1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="7">
         <f>Input!E6*Input!G6</f>
         <v>131072000</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="6">
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="7">
         <f>4*Input!E6*Input!E6</f>
         <v>67108864</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="6">
+      <c r="H1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="7">
         <f>8*Input!E6*Input!E6++Input!E6*5</f>
         <v>134238208</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="9">
+      <c r="J1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="10">
         <f>Input!C6*Input!E6</f>
         <v>16777216</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <f>12*C1/Input!C13/Input!C14</f>
         <v>9861267456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3">
         <f>2*C1/Input!C13/Input!C14</f>
         <v>1643544576</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="3">
         <f>2*C1/Input!C13/Input!C14</f>
         <v>1643544576</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <f>Input!F6*Input!C6*Input!C12*Input!E6*2/Input!C13</f>
         <v>8589934592</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" s="3">
         <f>(C4+E4+G4+I4)</f>
@@ -2262,46 +2325,46 @@
       </c>
     </row>
     <row r="6" ht="57" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
+      <c r="A6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3">
         <f>Input!F6/Input!C14</f>
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
         <f>Input!C12/Input!C15</f>
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3">
         <f>2*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!D2/1000000000000</f>
         <v>5.983963185152</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3">
         <f>4*Input!C6*Input!C12*C1/Input!C13/Input!C14/Input!D2/1000000000000</f>
         <v>11.967926370304</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6" s="3">
         <f>G6/C6/E6</f>
         <v>0.023374856192</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6" s="3">
         <f>I6/C6/E6</f>
@@ -2309,18 +2372,18 @@
       </c>
     </row>
     <row r="8" ht="57" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
+      <c r="A8" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3">
         <f>Input!F6/Input!C14</f>
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3">
         <f>Input!C12/Input!C15</f>
@@ -2328,16 +2391,16 @@
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3">
         <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*2*4</f>
         <v>8.589934592</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3">
         <f>C9/C8/E8</f>
@@ -2345,16 +2408,16 @@
       </c>
     </row>
     <row r="10" ht="57" spans="1:5">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <f>2*Input!E6*Input!E6*Input!F6*Input!C12/Input!C14/Input!G2/1000000000*2*2*4</f>
         <v>8.589934592</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3">
         <f>C10/C8/E8</f>
@@ -2362,16 +2425,16 @@
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:5">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3">
         <f>C10</f>
         <v>8.589934592</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
         <f>C11/C8/E8</f>
@@ -2379,16 +2442,16 @@
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3">
         <f>2*Input!E6*Input!E6*Input!C12/Input!C13/Input!C9*8/1000000000*8</f>
         <v>0.17179869184</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3">
         <f>C12/E8</f>
@@ -2396,16 +2459,16 @@
       </c>
     </row>
     <row r="13" ht="57" spans="1:5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3">
         <f>E1*2*8/1000000000/Input!C13/Input!C9</f>
         <v>0.00524288</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3">
         <f>C1/Input!C13/Input!C14*2*8/1000000000*8/Input!C9</f>
@@ -2413,7 +2476,7 @@
       </c>
     </row>
     <row r="24" spans="8:8">
-      <c r="H24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2428,10 +2491,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2442,76 +2505,107 @@
     <col min="8" max="8" width="12.625"/>
     <col min="9" max="9" width="13.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="12.625"/>
-    <col min="11" max="11" width="12.8166666666667"/>
-    <col min="13" max="13" width="12.8166666666667"/>
-    <col min="14" max="14" width="12.625"/>
+    <col min="11" max="12" width="12.8166666666667"/>
+    <col min="13" max="13" width="12.625"/>
     <col min="15" max="15" width="12.8166666666667"/>
-    <col min="16" max="16" width="12.6333333333333" customWidth="1"/>
-    <col min="17" max="17" width="13.275" customWidth="1"/>
+    <col min="16" max="16" width="12.625"/>
+    <col min="17" max="17" width="12.8166666666667"/>
+    <col min="18" max="18" width="12.6333333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.275" customWidth="1"/>
+    <col min="23" max="23" width="12.625"/>
+    <col min="25" max="25" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:17">
+    <row r="1" ht="57" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3">
         <f>Computation!C8</f>
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3">
         <f>Computation!E8</f>
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3">
         <f>(Input!C14-1)*I1/Computation!E6</f>
         <v>0.910868611072</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3">
         <f>Computation!C9+Computation!G6</f>
         <v>14.573897777152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K1" s="3">
         <f>MAX(Computation!C10+Computation!C11,Computation!I6)</f>
         <v>17.179869184</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M1" s="3">
+        <f>I1+K1</f>
+        <v>31.753766961152</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3">
         <f>(Input!C14-1)*K1/Computation!E6</f>
         <v>1.073741824</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="3">
+      <c r="P1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="3">
         <f>Computation!C13+Computation!E13</f>
         <v>1.05711140864</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="3">
-        <f>G1+I1+K1+M1+O1</f>
+      <c r="R1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="3">
+        <f>G1+I1+K1+O1+Q1</f>
         <v>34.795488804864</v>
       </c>
-    </row>
-    <row r="2" ht="42.75" spans="1:17">
+      <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="3">
+        <f>Input!C13*Input!C14*Input!E18</f>
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="3">
+        <f>CEILING(Input!C18*Input!G18/Input!C12/Input!E18*10000000/Input!C6,1)</f>
+        <v>7630</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="3">
+        <f>S1*W1</f>
+        <v>265489.579581112</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2520,14 +2614,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3">
         <f>Computation!E9</f>
         <v>0.033554432</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3">
         <f>Computation!E10</f>
@@ -2539,8 +2633,16 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" ht="57" spans="1:17">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" ht="57" spans="1:25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2549,14 +2651,14 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I3" s="3">
         <f>Computation!K6</f>
         <v>0.023374856192</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3">
         <f>Computation!E11</f>
@@ -2568,8 +2670,16 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-    </row>
-    <row r="4" ht="57" spans="1:17">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" ht="57" spans="1:25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2578,14 +2688,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I4" s="3">
         <f>I3/(I2+I3)</f>
         <v>0.410594562734841</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K4" s="3">
         <f>Computation!M6</f>
@@ -2597,8 +2707,16 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:17">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2609,7 +2727,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K5" s="3">
         <f>Computation!I6/K1</f>
@@ -2621,6 +2739,14 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
